--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-calibration-model-k-5.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-calibration-model-k-5.xlsx
@@ -142,28 +142,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>3.3704219743955708</v>
+        <v>2.3872421750886934</v>
       </c>
       <c r="C2" s="0">
-        <v>0.23836081855697103</v>
+        <v>0.20867501530495575</v>
       </c>
       <c r="D2" s="0">
-        <v>2.612023559112048</v>
+        <v>1.7646111111111111</v>
       </c>
       <c r="E2" s="0">
-        <v>0.38784224726484962</v>
+        <v>0.42486805750385392</v>
       </c>
       <c r="F2" s="0">
-        <v>0.62276981884549421</v>
+        <v>0.65181903738986779</v>
       </c>
       <c r="G2" s="0">
-        <v>0.63275764513373256</v>
+        <v>0.62309714375392355</v>
       </c>
       <c r="H2" s="0">
-        <v>0.61215775273515038</v>
+        <v>0.57513194249614608</v>
       </c>
       <c r="I2" s="0">
-        <v>0.78280374305681466</v>
+        <v>0.76687891893576465</v>
       </c>
     </row>
     <row r="3">
@@ -171,28 +171,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.3095716075766175</v>
+        <v>1.4720374160240981</v>
       </c>
       <c r="C3" s="0">
-        <v>0.23405739798985975</v>
+        <v>0.12867459930280581</v>
       </c>
       <c r="D3" s="0">
-        <v>2.6114324294509577</v>
+        <v>1.1391348715317329</v>
       </c>
       <c r="E3" s="0">
-        <v>0.37396428171355278</v>
+        <v>0.1615469719962801</v>
       </c>
       <c r="F3" s="0">
-        <v>0.61152619053770119</v>
+        <v>0.40192906338840451</v>
       </c>
       <c r="G3" s="0">
-        <v>0.6326144451189335</v>
+        <v>0.40223688966516002</v>
       </c>
       <c r="H3" s="0">
-        <v>0.62603571828644722</v>
+        <v>0.8384530280037199</v>
       </c>
       <c r="I3" s="0">
-        <v>0.8123407838698895</v>
+        <v>0.93081182381316507</v>
       </c>
     </row>
     <row r="4">
@@ -200,28 +200,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>4.5933430091818748</v>
+        <v>4.2128375235700704</v>
       </c>
       <c r="C4" s="0">
-        <v>0.32484745468047199</v>
+        <v>0.36825502828409712</v>
       </c>
       <c r="D4" s="0">
-        <v>3.6360000000000001</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.72035125095597075</v>
+        <v>1.3231544574828158</v>
       </c>
       <c r="F4" s="0">
-        <v>0.84873508879742376</v>
+        <v>1.1502845115373916</v>
       </c>
       <c r="G4" s="0">
-        <v>0.8808139534883721</v>
+        <v>1.1723163841807913</v>
       </c>
       <c r="H4" s="0">
-        <v>0.27964874904402925</v>
+        <v>-0.32315445748281579</v>
       </c>
       <c r="I4" s="0">
-        <v>0.78485659207149727</v>
+        <v>0.83980129657442193</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-calibration-model-k-5.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Trained-Test-Results-k-5-old-model-configuration/Results-calibration-model-k-5.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -110,94 +182,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0">
-        <v>2.013077291957206</v>
+        <v>2.1434986266114011</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17596829475150405</v>
+        <v>0.1873687610674302</v>
       </c>
       <c r="D2" s="0">
-        <v>1.2861081975560062</v>
+        <v>1.5105784391534391</v>
       </c>
       <c r="E2" s="0">
-        <v>0.30212177251060562</v>
+        <v>0.34253704223276443</v>
       </c>
       <c r="F2" s="0">
-        <v>0.54965604928046197</v>
+        <v>0.58526664199556466</v>
       </c>
       <c r="G2" s="0">
-        <v>0.45413425054943729</v>
+        <v>0.53339634150898296</v>
       </c>
       <c r="H2" s="0">
-        <v>0.69787822748939443</v>
+        <v>0.65746295776723551</v>
       </c>
       <c r="I2" s="0">
-        <v>0.84105002009981544</v>
+        <v>0.81395372334597615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0">
-        <v>1.5408979937564509</v>
+        <v>1.4648382807338998</v>
       </c>
       <c r="C3" s="0">
-        <v>0.13469388057311635</v>
+        <v>0.12804530425995631</v>
       </c>
       <c r="D3" s="0">
-        <v>1.1135194321156257</v>
+        <v>1.0402304647540634</v>
       </c>
       <c r="E3" s="0">
-        <v>0.17701452481568095</v>
+        <v>0.15997071500912871</v>
       </c>
       <c r="F3" s="0">
-        <v>0.42073094111995252</v>
+        <v>0.39996339208623671</v>
       </c>
       <c r="G3" s="0">
-        <v>0.39319188987133685</v>
+        <v>0.36731301721541798</v>
       </c>
       <c r="H3" s="0">
-        <v>0.82298547518431908</v>
+        <v>0.84002928499087126</v>
       </c>
       <c r="I3" s="0">
-        <v>0.91652883584243949</v>
+        <v>0.92550664357202717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0">
         <v>4.2128375235700704</v>
